--- a/medicine/Enfance/Adam_Silvera/Adam_Silvera.xlsx
+++ b/medicine/Enfance/Adam_Silvera/Adam_Silvera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Silvera, né le 7 juin 1990 à New York, est un auteur américain de romans pour jeunes adultes faisant partie des auteurs présents dans la liste des meilleures ventes du New York Times. Il est principalement connu pour ses romans Et ils meurent tous les deux à la fin, Pourquoi pas nous? et Tu ne m'as laissé que notre histoire.
 </t>
@@ -511,11 +523,13 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adam Silvera est né d'une mère portoricaine et a grandi dans une communauté portoricaine du sud du Bronx à New York[1],[2].
-Adam Silvera a commencé à écrire vers l'âge de 10 ou 11 ans, dans un premier temps la fan fiction[3]. Adam Silvera a travaillé comme barista, libraire et critique pour Shelf Awareness avant de devenir écrivain[4].
-Adam Silvera est ouvert sur ses problèmes de dépression et s'identifie comme personne homosexuelle[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adam Silvera est né d'une mère portoricaine et a grandi dans une communauté portoricaine du sud du Bronx à New York,.
+Adam Silvera a commencé à écrire vers l'âge de 10 ou 11 ans, dans un premier temps la fan fiction. Adam Silvera a travaillé comme barista, libraire et critique pour Shelf Awareness avant de devenir écrivain.
+Adam Silvera est ouvert sur ses problèmes de dépression et s'identifie comme personne homosexuelle,.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Adaptations à l'écran</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les droits de cinéma de son quatrième roman, Pourquoi pas nous ? ((en) What If It's Us?) co-écrit avec Becky Albertalli, ont été vendus à Anonymous Content en 2018, avec pour scénariste Brian Yorkey[7].
-En 2019, HBO a choisi son roman, Et ils meurent tous les deux à la fin, pour en faire une série avec comme producteur exécutif J. J. Abrams et Chris Kelly comme scénariste[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les droits de cinéma de son quatrième roman, Pourquoi pas nous ? ((en) What If It's Us?) co-écrit avec Becky Albertalli, ont été vendus à Anonymous Content en 2018, avec pour scénariste Brian Yorkey.
+En 2019, HBO a choisi son roman, Et ils meurent tous les deux à la fin, pour en faire une série avec comme producteur exécutif J. J. Abrams et Chris Kelly comme scénariste.
 </t>
         </is>
       </c>
@@ -578,20 +594,161 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Death Cast
-Et ils meurent tous les deux à la fin, Robert Laffont, coll. « R », 2018 ((en) They Both Die At The End, HarperTeen, 2017), trad. Constance de Mascureau, 416 p.  (ISBN 978-2-221-21823-5)
-Le Premier qui meurt à la fin, Robert Laffont, coll. « R », 2022 ((en) The First to Die at the End, Quill Tree Books, 2022), trad. Cécile Ardilly et Fabien Le Roy, 414 p.  (ISBN 978-2-221-26558-1)
-Série What If It's Us
-Pourquoi pas nous ?, Hachette, 2018 ((en) What If It's Us, HarperTeen, 2018), trad. Mathilde Tamae-Bouhon et Jean-Baptiste Flamin, 380 p.  (ISBN 978-2-01-627020-2)Coécrit avec Becky Albertalli.
-(en) Here's To Us, HarperTeen, 2021Coécrit avec Becky Albertalli.
-Série Infinity Cycle
-Fils de l'infini, Robert Laffont, coll. « R », 2021 ((en) Infinity Son, HarperTeen, 2020), trad. Constance de Mascureau, 396 p.  (ISBN 978-2-221-24753-2)
-Fils du néant, Robert Laffont, coll. « R », 2022 ((en) Infinity Reaper, Quill Tree, 2021), trad. Cécile Ardilly, 558 p.  (ISBN 978-2-221-24754-9)
-Romans
-Plus heureux que jamais, Robert Laffont, coll. « R », 2022 ((en) More Happy Than Not, SoHo Teen, 2015), trad. Constance de Mascureau, 444 p.  (ISBN 978-2-221-24049-6)
-Tu ne m'as laissé que notre histoire, Robert Laffont, coll. « R », 2018 ((en) History Is All You Left Me, SoHo Teen, 2017), trad. Constance de Mascureau, 432 p.  (ISBN 978-2-221-22080-1)
-Nouvelles
-Dans (en) Because You Love to Hate Me: 13 Tales of Villainy, Bloomsbury, 2017
+          <t>Série Death Cast</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Et ils meurent tous les deux à la fin, Robert Laffont, coll. « R », 2018 ((en) They Both Die At The End, HarperTeen, 2017), trad. Constance de Mascureau, 416 p.  (ISBN 978-2-221-21823-5)
+Le Premier qui meurt à la fin, Robert Laffont, coll. « R », 2022 ((en) The First to Die at the End, Quill Tree Books, 2022), trad. Cécile Ardilly et Fabien Le Roy, 414 p.  (ISBN 978-2-221-26558-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série What If It's Us</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pourquoi pas nous ?, Hachette, 2018 ((en) What If It's Us, HarperTeen, 2018), trad. Mathilde Tamae-Bouhon et Jean-Baptiste Flamin, 380 p.  (ISBN 978-2-01-627020-2)Coécrit avec Becky Albertalli.
+(en) Here's To Us, HarperTeen, 2021Coécrit avec Becky Albertalli.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Infinity Cycle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fils de l'infini, Robert Laffont, coll. « R », 2021 ((en) Infinity Son, HarperTeen, 2020), trad. Constance de Mascureau, 396 p.  (ISBN 978-2-221-24753-2)
+Fils du néant, Robert Laffont, coll. « R », 2022 ((en) Infinity Reaper, Quill Tree, 2021), trad. Cécile Ardilly, 558 p.  (ISBN 978-2-221-24754-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Plus heureux que jamais, Robert Laffont, coll. « R », 2022 ((en) More Happy Than Not, SoHo Teen, 2015), trad. Constance de Mascureau, 444 p.  (ISBN 978-2-221-24049-6)
+Tu ne m'as laissé que notre histoire, Robert Laffont, coll. « R », 2018 ((en) History Is All You Left Me, SoHo Teen, 2017), trad. Constance de Mascureau, 432 p.  (ISBN 978-2-221-22080-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adam_Silvera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans (en) Because You Love to Hate Me: 13 Tales of Villainy, Bloomsbury, 2017
 Dans (en) (Don't) Call Me Crazy, Algonquin, 2018
 Dans (en) Color Outside the Lines, SoHo Teen, 2019</t>
         </is>
